--- a/calc.xlsx
+++ b/calc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>def</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Damage Reduce</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>isCrit</t>
+  </si>
+  <si>
+    <t>critDamage</t>
   </si>
 </sst>
 </file>
@@ -77,9 +86,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,24 +154,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,7 +480,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,17 +566,31 @@
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -590,16 +626,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="4">
-        <f xml:space="preserve"> C8 *$C$12 * (1 - $K$4)</f>
-        <v>925.19748909076998</v>
+        <f>C8*$C$12*(1-$K$4)*(IF($K$5="false",1,$K$6))</f>
+        <v>1850.39497818154</v>
       </c>
       <c r="D9" s="4">
         <f>C9*0.9</f>
-        <v>832.67774018169303</v>
+        <v>1665.3554803633861</v>
       </c>
       <c r="E9" s="4">
         <f>C9*1.1</f>
-        <v>1017.717237999847</v>
+        <v>2035.4344759996941</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -627,15 +627,15 @@
       </c>
       <c r="C9" s="4">
         <f>C8*$C$12*(1-$K$4)*(IF($K$5="false",1,$K$6))</f>
-        <v>1850.39497818154</v>
+        <v>647.63824236353889</v>
       </c>
       <c r="D9" s="4">
         <f>C9*0.9</f>
-        <v>1665.3554803633861</v>
+        <v>582.87441812718498</v>
       </c>
       <c r="E9" s="4">
         <f>C9*1.1</f>
-        <v>2035.4344759996941</v>
+        <v>712.40206659989281</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>def</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Damage Reduce</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>isCrit</t>
@@ -168,13 +165,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -480,7 +477,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,23 +569,23 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>2</v>
       </c>
     </row>
@@ -626,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4">
-        <f>C8*$C$12*(1-$K$4)*(IF($K$5="false",1,$K$6))</f>
+        <f>C8*$C$12*(1-$K$4)*(IF($K$5=0,1,$K$6))</f>
         <v>647.63824236353889</v>
       </c>
       <c r="D9" s="4">
